--- a/Data/config.xlsx
+++ b/Data/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyab505\Desktop\USMAP\USMAP Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyab505\Desktop\USMAP\UiPath_USMAP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,10 +49,10 @@
     <t>mongp464</t>
   </si>
   <si>
-    <t>wasik505</t>
-  </si>
-  <si>
-    <t>Was@2020</t>
+    <t>komsc685</t>
+  </si>
+  <si>
+    <t>Kom@2020</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -556,11 +556,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
